--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01161212</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Physical Activity, Health-related Quality of Life and Corpulence Among French Schoolchildren</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>REGUL'APS</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -556,32 +566,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00301470</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Interest of MR Urography in the Evaluation of Functional Consequences of Urinary Tract in Children and Adults</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00814554</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>PRALIMAP: Effectiveness Evaluation of Three Strategies of Prevention of Overweight and Obesity in Adolescents; a Cluster Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PRALIMAP</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -648,32 +668,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01242007</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lung Function Impairment and Postural Spirometry Changes in Ambulatory Myotonic Dystrophy Patients</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -692,36 +717,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02861235</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Comparison Between Myocardial Tomoscintigraphies Using a Semiconductor Camera or a Conventional Camera According to Conditions of Examination Execution: Assessment of Infarction or Ischemia, Injected Dye and Sequence of Injections</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>DSPECT</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -740,36 +770,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02885090</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Search for New Genes Involved in Molecular Etiology of Rett Syndrome Through Comparative Genomic Hybridization on DNA Microarrays</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>RETT</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -788,36 +823,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01570179</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sugammadex in Patients Undergoing Bariatric Surgery: An Equivalence Trial Comparing Real and Ideal Body Weight-based Dosing</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SugReBaCh-1</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -836,36 +876,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02887131</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>IDIS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -884,32 +929,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02129621</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -928,36 +978,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02877537</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>SALBUTAMOL</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -976,36 +1031,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT03234205</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>ARTEMIS</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1024,36 +1084,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01090934</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Etude de la Performance Diagnostique de l'EEG-Haute Résolution Sur la Localisation de la Zone épileptogène Pour le Traitement Chirurgical Des épilepsies Partielles Pharmaco-résistantes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>EEG-HR</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1072,36 +1137,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01351961</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ADELAHYDE2</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1120,36 +1190,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02182908</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1168,36 +1243,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT02858167</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>BDD TEP FDG</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1216,36 +1296,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01963221</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>FICTEP</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1264,36 +1349,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT03240029</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>QdV leucémie</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1312,36 +1402,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02861222</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>MYOCET</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1360,36 +1455,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01722617</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>A Study to Validate Questionnaires FLARE and OM-RA-FLARE Measuring Disease Flares in Patients With Rheumatoid Arthritis.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>FLARE</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1408,36 +1508,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01692977</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Orienting Oneself in a Healing Garden: What Elements of the Design Are Used as Landmarks by Patients With Alzheimer's Disease ?</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>JAZ-TOP</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1456,36 +1561,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01544647</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Comparison of 2 Spa Therapy Protocols in Symptomatic Knee Osteoarthritis : a Randomised Trial</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Nancythermal</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1504,36 +1614,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02869100</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Comparison of Sodium Fluoride Positron Emission Tomography and Magnetic Resonance Imaging of Spine and Sacroiliac Joints for Detection of Inflammatory Lesions in Patients Affected by Spondyloarthritis</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>FNa</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1552,36 +1667,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02851576</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>CTL-ADV</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1600,32 +1720,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02893449</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1644,36 +1769,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02879786</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>EQUIDYS</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1692,36 +1822,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02874196</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Study of Diagnostic Performances of Dual Energy Imaging With Flat Detectors and Tomosynthesis in Identification of Loosening of Painful Hip Prosthesis</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>PLIDET</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1740,36 +1875,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02869126</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>D-SPECT BIS</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1788,36 +1928,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02430805</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Hypercare</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1836,36 +1981,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01716819</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>R2C2-II</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1884,36 +2034,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02894632</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>MR Compatible Accelerometer for Respiratory MOTion Measurement</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>MARMOT</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1932,40 +2087,45 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01367743</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2009-017081-23</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>OptimaCC</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1984,36 +2144,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02634099</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Hemoglobin Monitoring During High Bleeding Risk Surgery in Pediatric Patients: Equivalence Study of Hemoglobin Transcutaneous Saturation and Hemocue With Total Serum Hemoglobin</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Hemoped</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2032,36 +2197,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02285712</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Contribution of Ultrasound for Peripheral Intravenous Catheter Placement by Intensive Care Nurses</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>IDECHO</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2080,36 +2250,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02556502</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>18F-Florbetaben PET Amyloid Imaging in Case of Intermediate CSF Biology for the Diagnosis of Alzheimer's Disease : a Pilot Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>MAF</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2128,36 +2303,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT03136315</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Renal Function Evaluation in an Ultra Endurance Race: On the Interest of Monitoring Specific Biomarkers to Asses Renal Risk.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>INFERNAL</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2176,36 +2356,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02873949</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Analysis of Soluble TREM (Triggering Receptor Expressed on Myeloid Cells)-1 and -2 in Crevicular Fluid and Associated Bacterial Flora in Patients Affected by Periodontitis</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>TREM</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2224,36 +2409,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02940847</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>The Effectiveness of Ultrasound-guided Technique Compared to Blind Technique in Medial Brachial Cutaneous Nerve Block and Intercostobrachial Nerve Block, in the Axilla</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>ECHO_NCMB</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2272,36 +2462,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT03306290</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>An Evaluation of Serum Concentration of CEFOxitin Used for Antibiotic Prophylaxis in Severely and Morbidly Obese Patients Undergoing BARiatric Surgery (CEFOBAR)</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>CEFOBAR</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2320,36 +2515,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02820376</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>DOVISCAN</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2368,36 +2568,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02869321</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>ANTALGIP</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2416,32 +2621,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02116868</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2460,36 +2670,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02864680</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Electrophysiological Study of the Functioning of Magnocellular Visual Pathway in Regular Cannabis Users</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>CAUSA MAP</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2508,28 +2723,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02754193</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Effects of Induced Moderate HYPOthermia on Mortality in Cardiogenic Shock Patients Rescued by Veno-arterial ExtraCorporeal Membrane Oxygenation (ECMO)</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>HYPO-ECMO</t>
         </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -2537,7 +2754,10 @@
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2556,36 +2776,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03356301</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>CoATri</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2604,32 +2829,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT04562571</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2648,28 +2878,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02261870</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>DRAGET</t>
         </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -2677,7 +2909,10 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2696,28 +2931,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03125447</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -2725,7 +2962,10 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2742,38 +2982,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2009-012817-23</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Etude CURDYS</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2788,36 +3033,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03980418</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Comparative Study of DaTSCAN ™ Cerebral SPECT Recorded by Conventional Anger Cameras and Semiconductor Camera (VERITON-CT ™)</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>VERIDAT</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2836,36 +3086,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02765009</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>POINCARE</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2884,36 +3139,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02640287</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>WAL-KU</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2932,28 +3192,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT01109225</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>REMI</t>
         </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -2961,7 +3223,10 @@
       <c r="K53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2980,36 +3245,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT04448769</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>COVAL-NANCY</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3028,32 +3298,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02268071</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3072,36 +3347,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03345290</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>PACTEP</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3120,32 +3400,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT04373707</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-001709-21</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Effectiveness of Weight-adjusted Prophylactic Low Molecular Weight Heparin Doses Compared With Lower Fixed Prophylactic Doses to Prevent Venous Thromboembolism in COVID-2019. The Multicenter Randomized Controlled Open-label Trial COVI-DOSE</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>COVI-DOSE</t>
         </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -3153,7 +3435,10 @@
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3172,40 +3457,45 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT04625738</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020-002772-12</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>MSC-COVID19</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3224,36 +3514,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03465098</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>TEPEIR</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3272,36 +3567,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT04354610</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Nancy-CovH-AKI</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3320,36 +3620,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02879825</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3368,28 +3673,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03342014</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>SPIRIT</t>
         </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -3397,7 +3704,10 @@
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3416,36 +3726,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT05308433</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Cybersickness imAgiNg Olfactory Evocation</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>CANOE</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3464,36 +3779,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02976545</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>EMOCRISES</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3512,36 +3832,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03370809</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Assessment of Positron Emission Tomography to Early Detect Frailty in Onco-geriatry</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>FOGTEP</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -3560,36 +3885,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02887053</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>METHODO</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3608,36 +3938,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03327493</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>ADRECMO</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3656,36 +3991,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT03348306</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>COBRA</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3704,36 +4044,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT04467567</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Optimization for Clinical Routine of a Dosimetry Protocol Using the Large Field of View VERITON-CT CZT Camera in Patients Treated With LUTATHERA® [177Lu- [DOTA0, Tyr3] -Octreotate</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>EVADOVE177Lu</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3752,36 +4097,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04764721</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>TEP-COV</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3800,36 +4150,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT04937582</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>NEUROCOG-COVID</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3848,36 +4203,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03347760</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>DOTAMIR</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3896,28 +4256,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT04348929</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>CONFINE</t>
         </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -3925,7 +4287,10 @@
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3944,36 +4309,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT05910424</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Characterisation of the Oral Microbiota and Oral Status of a Population of Adult Patients With Autism Spectrum Disorders: a Pilot Study</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>MICAA</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3992,36 +4362,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT04275895</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Interdependency Between Cognitive and Postural Activities in Prematurely Born Children</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>COGNIPOST</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4040,36 +4415,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03432182</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Characterization of Movements Occurring During Sleep in Very Premature Neonates: Relationship With Neurodevelopmental Outcome</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>DODOPREMA</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4088,36 +4468,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT05183555</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>DOTENDO</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4136,32 +4521,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT01253252</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Endoprosthesis Treatment Effects on Human Abdominal Aorta Aneurysms(AAA)Metabolic Activity</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>AAAendo</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01161212</t>

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -88,39 +88,39 @@
     <t>NCT01570179</t>
   </si>
   <si>
+    <t>NCT02129621</t>
+  </si>
+  <si>
+    <t>NCT03234205</t>
+  </si>
+  <si>
+    <t>NCT02877537</t>
+  </si>
+  <si>
     <t>NCT02887131</t>
   </si>
   <si>
-    <t>NCT02129621</t>
-  </si>
-  <si>
-    <t>NCT02877537</t>
-  </si>
-  <si>
-    <t>NCT03234205</t>
+    <t>NCT01351961</t>
+  </si>
+  <si>
+    <t>NCT02182908</t>
   </si>
   <si>
     <t>NCT01090934</t>
   </si>
   <si>
-    <t>NCT01351961</t>
-  </si>
-  <si>
-    <t>NCT02182908</t>
-  </si>
-  <si>
     <t>NCT02858167</t>
   </si>
   <si>
+    <t>NCT02861222</t>
+  </si>
+  <si>
+    <t>NCT03240029</t>
+  </si>
+  <si>
     <t>NCT01963221</t>
   </si>
   <si>
-    <t>NCT03240029</t>
-  </si>
-  <si>
-    <t>NCT02861222</t>
-  </si>
-  <si>
     <t>NCT01722617</t>
   </si>
   <si>
@@ -130,13 +130,19 @@
     <t>NCT01544647</t>
   </si>
   <si>
+    <t>NCT02893449</t>
+  </si>
+  <si>
+    <t>NCT02430805</t>
+  </si>
+  <si>
     <t>NCT02869100</t>
   </si>
   <si>
     <t>NCT02851576</t>
   </si>
   <si>
-    <t>NCT02893449</t>
+    <t>NCT02869126</t>
   </si>
   <si>
     <t>NCT02879786</t>
@@ -145,37 +151,37 @@
     <t>NCT02874196</t>
   </si>
   <si>
-    <t>NCT02869126</t>
-  </si>
-  <si>
-    <t>NCT02430805</t>
-  </si>
-  <si>
     <t>NCT01716819</t>
   </si>
   <si>
+    <t>NCT02634099</t>
+  </si>
+  <si>
     <t>NCT02894632</t>
   </si>
   <si>
     <t>NCT01367743</t>
   </si>
   <si>
-    <t>NCT02634099</t>
-  </si>
-  <si>
     <t>NCT02285712</t>
   </si>
   <si>
+    <t>NCT02873949</t>
+  </si>
+  <si>
+    <t>NCT02940847</t>
+  </si>
+  <si>
     <t>NCT02556502</t>
   </si>
   <si>
     <t>NCT03136315</t>
   </si>
   <si>
-    <t>NCT02873949</t>
-  </si>
-  <si>
-    <t>NCT02940847</t>
+    <t>NCT02116868</t>
+  </si>
+  <si>
+    <t>NCT02869321</t>
   </si>
   <si>
     <t>NCT03306290</t>
@@ -184,49 +190,52 @@
     <t>NCT02820376</t>
   </si>
   <si>
-    <t>NCT02869321</t>
-  </si>
-  <si>
-    <t>NCT02116868</t>
+    <t>NCT04562571</t>
   </si>
   <si>
     <t>NCT02864680</t>
   </si>
   <si>
+    <t>NCT03356301</t>
+  </si>
+  <si>
     <t>NCT02754193</t>
   </si>
   <si>
-    <t>NCT03356301</t>
-  </si>
-  <si>
-    <t>NCT04562571</t>
+    <t>NCT02765009</t>
+  </si>
+  <si>
+    <t>NCT01109225</t>
+  </si>
+  <si>
+    <t>NCT04448769</t>
+  </si>
+  <si>
+    <t>NCT02268071</t>
+  </si>
+  <si>
+    <t>NCT03125447</t>
+  </si>
+  <si>
+    <t>NCT02640287</t>
+  </si>
+  <si>
+    <t>NCT03345290</t>
+  </si>
+  <si>
+    <t>NCT03980418</t>
   </si>
   <si>
     <t>NCT02261870</t>
   </si>
   <si>
-    <t>NCT03125447</t>
-  </si>
-  <si>
-    <t>NCT03980418</t>
-  </si>
-  <si>
-    <t>NCT02765009</t>
-  </si>
-  <si>
-    <t>NCT02640287</t>
-  </si>
-  <si>
-    <t>NCT01109225</t>
-  </si>
-  <si>
-    <t>NCT04448769</t>
-  </si>
-  <si>
-    <t>NCT02268071</t>
-  </si>
-  <si>
-    <t>NCT03345290</t>
+    <t>NCT04354610</t>
+  </si>
+  <si>
+    <t>NCT03465098</t>
+  </si>
+  <si>
+    <t>NCT02879825</t>
   </si>
   <si>
     <t>NCT04373707</t>
@@ -235,63 +244,54 @@
     <t>NCT04625738</t>
   </si>
   <si>
-    <t>NCT03465098</t>
-  </si>
-  <si>
-    <t>NCT04354610</t>
-  </si>
-  <si>
-    <t>NCT02879825</t>
+    <t>NCT03370809</t>
+  </si>
+  <si>
+    <t>NCT05308433</t>
+  </si>
+  <si>
+    <t>NCT03327493</t>
+  </si>
+  <si>
+    <t>NCT02887053</t>
   </si>
   <si>
     <t>NCT03342014</t>
   </si>
   <si>
-    <t>NCT05308433</t>
+    <t>NCT03348306</t>
   </si>
   <si>
     <t>NCT02976545</t>
   </si>
   <si>
-    <t>NCT03370809</t>
-  </si>
-  <si>
-    <t>NCT02887053</t>
-  </si>
-  <si>
-    <t>NCT03327493</t>
-  </si>
-  <si>
-    <t>NCT03348306</t>
-  </si>
-  <si>
     <t>NCT04467567</t>
   </si>
   <si>
+    <t>NCT04937582</t>
+  </si>
+  <si>
+    <t>NCT03347760</t>
+  </si>
+  <si>
     <t>NCT04764721</t>
   </si>
   <si>
-    <t>NCT04937582</t>
-  </si>
-  <si>
-    <t>NCT03347760</t>
-  </si>
-  <si>
     <t>NCT04348929</t>
   </si>
   <si>
     <t>NCT05910424</t>
   </si>
   <si>
+    <t>NCT05183555</t>
+  </si>
+  <si>
     <t>NCT04275895</t>
   </si>
   <si>
     <t>NCT03432182</t>
   </si>
   <si>
-    <t>NCT05183555</t>
-  </si>
-  <si>
     <t>NCT01253252</t>
   </si>
   <si>
@@ -382,39 +382,39 @@
     <t>Sugammadex in Patients Undergoing Bariatric Surgery: An Equivalence Trial Comparing Real and Ideal Body Weight-based Dosing</t>
   </si>
   <si>
+    <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
+  </si>
+  <si>
+    <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
+  </si>
+  <si>
+    <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
+  </si>
+  <si>
     <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
   </si>
   <si>
-    <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
-  </si>
-  <si>
-    <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
-  </si>
-  <si>
-    <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
+    <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
+  </si>
+  <si>
+    <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
   </si>
   <si>
     <t>Etude de la Performance Diagnostique de l'EEG-Haute Résolution Sur la Localisation de la Zone épileptogène Pour le Traitement Chirurgical Des épilepsies Partielles Pharmaco-résistantes</t>
   </si>
   <si>
-    <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
-  </si>
-  <si>
-    <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
-  </si>
-  <si>
     <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
   </si>
   <si>
+    <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
+  </si>
+  <si>
+    <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
+  </si>
+  <si>
     <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
   </si>
   <si>
-    <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
-  </si>
-  <si>
-    <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
-  </si>
-  <si>
     <t>A Study to Validate Questionnaires FLARE and OM-RA-FLARE Measuring Disease Flares in Patients With Rheumatoid Arthritis.</t>
   </si>
   <si>
@@ -424,13 +424,19 @@
     <t>Comparison of 2 Spa Therapy Protocols in Symptomatic Knee Osteoarthritis : a Randomised Trial</t>
   </si>
   <si>
+    <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
+  </si>
+  <si>
+    <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
+  </si>
+  <si>
     <t>Comparison of Sodium Fluoride Positron Emission Tomography and Magnetic Resonance Imaging of Spine and Sacroiliac Joints for Detection of Inflammatory Lesions in Patients Affected by Spondyloarthritis</t>
   </si>
   <si>
     <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
   </si>
   <si>
-    <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
+    <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
   </si>
   <si>
     <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
@@ -439,37 +445,37 @@
     <t>Study of Diagnostic Performances of Dual Energy Imaging With Flat Detectors and Tomosynthesis in Identification of Loosening of Painful Hip Prosthesis</t>
   </si>
   <si>
-    <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
-  </si>
-  <si>
-    <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
-  </si>
-  <si>
     <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
   </si>
   <si>
+    <t>Hemoglobin Monitoring During High Bleeding Risk Surgery in Pediatric Patients: Equivalence Study of Hemoglobin Transcutaneous Saturation and Hemocue With Total Serum Hemoglobin</t>
+  </si>
+  <si>
     <t>MR Compatible Accelerometer for Respiratory MOTion Measurement</t>
   </si>
   <si>
     <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
   </si>
   <si>
-    <t>Hemoglobin Monitoring During High Bleeding Risk Surgery in Pediatric Patients: Equivalence Study of Hemoglobin Transcutaneous Saturation and Hemocue With Total Serum Hemoglobin</t>
-  </si>
-  <si>
     <t>Contribution of Ultrasound for Peripheral Intravenous Catheter Placement by Intensive Care Nurses</t>
   </si>
   <si>
+    <t>Analysis of Soluble TREM (Triggering Receptor Expressed on Myeloid Cells)-1 and -2 in Crevicular Fluid and Associated Bacterial Flora in Patients Affected by Periodontitis</t>
+  </si>
+  <si>
+    <t>The Effectiveness of Ultrasound-guided Technique Compared to Blind Technique in Medial Brachial Cutaneous Nerve Block and Intercostobrachial Nerve Block, in the Axilla</t>
+  </si>
+  <si>
     <t>18F-Florbetaben PET Amyloid Imaging in Case of Intermediate CSF Biology for the Diagnosis of Alzheimer's Disease : a Pilot Study</t>
   </si>
   <si>
     <t>Renal Function Evaluation in an Ultra Endurance Race: On the Interest of Monitoring Specific Biomarkers to Asses Renal Risk.</t>
   </si>
   <si>
-    <t>Analysis of Soluble TREM (Triggering Receptor Expressed on Myeloid Cells)-1 and -2 in Crevicular Fluid and Associated Bacterial Flora in Patients Affected by Periodontitis</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Ultrasound-guided Technique Compared to Blind Technique in Medial Brachial Cutaneous Nerve Block and Intercostobrachial Nerve Block, in the Axilla</t>
+    <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
   </si>
   <si>
     <t>An Evaluation of Serum Concentration of CEFOxitin Used for Antibiotic Prophylaxis in Severely and Morbidly Obese Patients Undergoing BARiatric Surgery (CEFOBAR)</t>
@@ -478,52 +484,55 @@
     <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
   </si>
   <si>
-    <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
-  </si>
-  <si>
-    <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
+    <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
   </si>
   <si>
     <t>Electrophysiological Study of the Functioning of Magnocellular Visual Pathway in Regular Cannabis Users</t>
   </si>
   <si>
+    <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
+  </si>
+  <si>
     <t>Effects of Induced Moderate HYPOthermia on Mortality in Cardiogenic Shock Patients Rescued by Veno-arterial ExtraCorporeal Membrane Oxygenation (ECMO)</t>
   </si>
   <si>
-    <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
-  </si>
-  <si>
-    <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
+    <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
+  </si>
+  <si>
+    <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
+  </si>
+  <si>
+    <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
+  </si>
+  <si>
+    <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
+  </si>
+  <si>
+    <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
+  </si>
+  <si>
+    <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
+  </si>
+  <si>
+    <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
+  </si>
+  <si>
+    <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
+  </si>
+  <si>
+    <t>Comparative Study of DaTSCAN ™ Cerebral SPECT Recorded by Conventional Anger Cameras and Semiconductor Camera (VERITON-CT ™)</t>
   </si>
   <si>
     <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
   </si>
   <si>
-    <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
-  </si>
-  <si>
-    <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
-  </si>
-  <si>
-    <t>Comparative Study of DaTSCAN ™ Cerebral SPECT Recorded by Conventional Anger Cameras and Semiconductor Camera (VERITON-CT ™)</t>
-  </si>
-  <si>
-    <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
-  </si>
-  <si>
-    <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
-  </si>
-  <si>
-    <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
-  </si>
-  <si>
-    <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
-  </si>
-  <si>
-    <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
-  </si>
-  <si>
-    <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
+    <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
+  </si>
+  <si>
+    <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
+  </si>
+  <si>
+    <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
   </si>
   <si>
     <t>Effectiveness of Weight-adjusted Prophylactic Low Molecular Weight Heparin Doses Compared With Lower Fixed Prophylactic Doses to Prevent Venous Thromboembolism in COVID-2019. The Multicenter Randomized Controlled Open-label Trial COVI-DOSE</t>
@@ -532,63 +541,54 @@
     <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
-  </si>
-  <si>
-    <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
-  </si>
-  <si>
-    <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
+    <t>Assessment of Positron Emission Tomography to Early Detect Frailty in Onco-geriatry</t>
+  </si>
+  <si>
+    <t>Cybersickness imAgiNg Olfactory Evocation</t>
+  </si>
+  <si>
+    <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
+  </si>
+  <si>
+    <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
   </si>
   <si>
     <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
   </si>
   <si>
-    <t>Cybersickness imAgiNg Olfactory Evocation</t>
+    <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
   </si>
   <si>
     <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
   </si>
   <si>
-    <t>Assessment of Positron Emission Tomography to Early Detect Frailty in Onco-geriatry</t>
-  </si>
-  <si>
-    <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
-  </si>
-  <si>
-    <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
-  </si>
-  <si>
-    <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
-  </si>
-  <si>
     <t>Optimization for Clinical Routine of a Dosimetry Protocol Using the Large Field of View VERITON-CT CZT Camera in Patients Treated With LUTATHERA® [177Lu- [DOTA0, Tyr3] -Octreotate</t>
   </si>
   <si>
+    <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
+  </si>
+  <si>
+    <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
+  </si>
+  <si>
     <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
   </si>
   <si>
-    <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
-  </si>
-  <si>
-    <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
-  </si>
-  <si>
     <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
   </si>
   <si>
     <t>Characterisation of the Oral Microbiota and Oral Status of a Population of Adult Patients With Autism Spectrum Disorders: a Pilot Study</t>
   </si>
   <si>
+    <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
+  </si>
+  <si>
     <t>Interdependency Between Cognitive and Postural Activities in Prematurely Born Children</t>
   </si>
   <si>
     <t>Characterization of Movements Occurring During Sleep in Very Premature Neonates: Relationship With Neurodevelopmental Outcome</t>
   </si>
   <si>
-    <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
-  </si>
-  <si>
     <t>Endoprosthesis Treatment Effects on Human Abdominal Aorta Aneurysms(AAA)Metabolic Activity</t>
   </si>
   <si>
@@ -607,36 +607,36 @@
     <t>SugReBaCh-1</t>
   </si>
   <si>
+    <t>ARTEMIS</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL</t>
+  </si>
+  <si>
     <t>IDIS</t>
   </si>
   <si>
-    <t>SALBUTAMOL</t>
-  </si>
-  <si>
-    <t>ARTEMIS</t>
+    <t>ADELAHYDE2</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
   <si>
     <t>EEG-HR</t>
   </si>
   <si>
-    <t>ADELAHYDE2</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
     <t>BDD TEP FDG</t>
   </si>
   <si>
+    <t>MYOCET</t>
+  </si>
+  <si>
+    <t>QdV leucémie</t>
+  </si>
+  <si>
     <t>FICTEP</t>
   </si>
   <si>
-    <t>QdV leucémie</t>
-  </si>
-  <si>
-    <t>MYOCET</t>
-  </si>
-  <si>
     <t>FLARE</t>
   </si>
   <si>
@@ -646,49 +646,52 @@
     <t>Nancythermal</t>
   </si>
   <si>
+    <t>Hypercare</t>
+  </si>
+  <si>
     <t>FNa</t>
   </si>
   <si>
     <t>CTL-ADV</t>
   </si>
   <si>
+    <t>D-SPECT BIS</t>
+  </si>
+  <si>
     <t>EQUIDYS</t>
   </si>
   <si>
     <t>PLIDET</t>
   </si>
   <si>
-    <t>D-SPECT BIS</t>
-  </si>
-  <si>
-    <t>Hypercare</t>
-  </si>
-  <si>
     <t>R2C2-II</t>
   </si>
   <si>
+    <t>Hemoped</t>
+  </si>
+  <si>
     <t>MARMOT</t>
   </si>
   <si>
     <t>OptimaCC</t>
   </si>
   <si>
-    <t>Hemoped</t>
-  </si>
-  <si>
     <t>IDECHO</t>
   </si>
   <si>
+    <t>TREM</t>
+  </si>
+  <si>
+    <t>ECHO_NCMB</t>
+  </si>
+  <si>
     <t>MAF</t>
   </si>
   <si>
     <t>INFERNAL</t>
   </si>
   <si>
-    <t>TREM</t>
-  </si>
-  <si>
-    <t>ECHO_NCMB</t>
+    <t>ANTALGIP</t>
   </si>
   <si>
     <t>CEFOBAR</t>
@@ -697,43 +700,49 @@
     <t>DOVISCAN</t>
   </si>
   <si>
-    <t>ANTALGIP</t>
-  </si>
-  <si>
     <t>CAUSA MAP</t>
   </si>
   <si>
+    <t>CoATri</t>
+  </si>
+  <si>
     <t>HYPO-ECMO</t>
   </si>
   <si>
-    <t>CoATri</t>
+    <t>POINCARE</t>
+  </si>
+  <si>
+    <t>REMI</t>
+  </si>
+  <si>
+    <t>COVAL-NANCY</t>
+  </si>
+  <si>
+    <t>Etude CURDYS</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>WAL-KU</t>
+  </si>
+  <si>
+    <t>PACTEP</t>
+  </si>
+  <si>
+    <t>VERIDAT</t>
   </si>
   <si>
     <t>DRAGET</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
-    <t>Etude CURDYS</t>
-  </si>
-  <si>
-    <t>VERIDAT</t>
-  </si>
-  <si>
-    <t>POINCARE</t>
-  </si>
-  <si>
-    <t>WAL-KU</t>
-  </si>
-  <si>
-    <t>REMI</t>
-  </si>
-  <si>
-    <t>COVAL-NANCY</t>
-  </si>
-  <si>
-    <t>PACTEP</t>
+    <t>Nancy-CovH-AKI</t>
+  </si>
+  <si>
+    <t>TEPEIR</t>
+  </si>
+  <si>
+    <t>STAMP</t>
   </si>
   <si>
     <t>COVI-DOSE</t>
@@ -742,61 +751,52 @@
     <t>MSC-COVID19</t>
   </si>
   <si>
-    <t>TEPEIR</t>
-  </si>
-  <si>
-    <t>Nancy-CovH-AKI</t>
-  </si>
-  <si>
-    <t>STAMP</t>
+    <t>FOGTEP</t>
+  </si>
+  <si>
+    <t>CANOE</t>
+  </si>
+  <si>
+    <t>ADRECMO</t>
+  </si>
+  <si>
+    <t>METHODO</t>
   </si>
   <si>
     <t>SPIRIT</t>
   </si>
   <si>
-    <t>CANOE</t>
+    <t>COBRA</t>
   </si>
   <si>
     <t>EMOCRISES</t>
   </si>
   <si>
-    <t>FOGTEP</t>
-  </si>
-  <si>
-    <t>METHODO</t>
-  </si>
-  <si>
-    <t>ADRECMO</t>
-  </si>
-  <si>
-    <t>COBRA</t>
-  </si>
-  <si>
     <t>EVADOVE177Lu</t>
   </si>
   <si>
+    <t>NEUROCOG-COVID</t>
+  </si>
+  <si>
+    <t>DOTAMIR</t>
+  </si>
+  <si>
     <t>TEP-COV</t>
   </si>
   <si>
-    <t>NEUROCOG-COVID</t>
-  </si>
-  <si>
-    <t>DOTAMIR</t>
-  </si>
-  <si>
     <t>CONFINE</t>
   </si>
   <si>
     <t>MICAA</t>
   </si>
   <si>
+    <t>DOTENDO</t>
+  </si>
+  <si>
     <t>COGNIPOST</t>
   </si>
   <si>
     <t>DODOPREMA</t>
-  </si>
-  <si>
-    <t>DOTENDO</t>
   </si>
   <si>
     <t>AAAendo</t>
@@ -1387,11 +1387,8 @@
       <c r="G9" t="s">
         <v>122</v>
       </c>
-      <c r="H9" t="s">
-        <v>197</v>
-      </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1410,8 +1407,11 @@
       <c r="G10" t="s">
         <v>123</v>
       </c>
+      <c r="H10" t="s">
+        <v>197</v>
+      </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1457,15 +1457,15 @@
         <v>199</v>
       </c>
       <c r="I12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1480,7 +1480,7 @@
         <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1503,15 +1503,15 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1526,7 +1526,7 @@
         <v>202</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1554,10 +1554,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1572,7 +1572,7 @@
         <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1600,10 +1600,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1618,7 +1618,7 @@
         <v>206</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1706,19 +1706,16 @@
       <c r="G23" t="s">
         <v>136</v>
       </c>
-      <c r="H23" t="s">
-        <v>210</v>
-      </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1730,7 +1727,7 @@
         <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I24" t="s">
         <v>262</v>
@@ -1752,16 +1749,19 @@
       <c r="G25" t="s">
         <v>138</v>
       </c>
+      <c r="H25" t="s">
+        <v>211</v>
+      </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1822,15 +1822,15 @@
         <v>214</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1845,7 +1845,7 @@
         <v>215</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1896,17 +1896,14 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
       <c r="F32" t="s">
         <v>106</v>
       </c>
@@ -1917,19 +1914,22 @@
         <v>218</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
       <c r="F33" t="s">
         <v>106</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1986,15 +1986,15 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2009,7 +2009,7 @@
         <v>222</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2032,15 +2032,15 @@
         <v>223</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2055,15 +2055,15 @@
         <v>224</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2074,11 +2074,8 @@
       <c r="G39" t="s">
         <v>152</v>
       </c>
-      <c r="H39" t="s">
-        <v>225</v>
-      </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2098,10 +2095,10 @@
         <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2121,18 +2118,18 @@
         <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2143,8 +2140,11 @@
       <c r="G42" t="s">
         <v>155</v>
       </c>
+      <c r="H42" t="s">
+        <v>227</v>
+      </c>
       <c r="I42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2163,19 +2163,16 @@
       <c r="G43" t="s">
         <v>156</v>
       </c>
-      <c r="H43" t="s">
-        <v>228</v>
-      </c>
       <c r="I43" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -2187,7 +2184,7 @@
         <v>157</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I44" t="s">
         <v>262</v>
@@ -2210,7 +2207,7 @@
         <v>158</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
         <v>263</v>
@@ -2218,10 +2215,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2232,16 +2229,19 @@
       <c r="G46" t="s">
         <v>159</v>
       </c>
+      <c r="H46" t="s">
+        <v>230</v>
+      </c>
       <c r="I46" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2279,7 +2279,7 @@
         <v>232</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2289,8 +2289,8 @@
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>94</v>
+      <c r="C49" t="s">
+        <v>64</v>
       </c>
       <c r="F49" t="s">
         <v>110</v>
@@ -2301,6 +2301,9 @@
       <c r="H49" t="s">
         <v>233</v>
       </c>
+      <c r="I49" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -2309,8 +2312,8 @@
       <c r="B50" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>64</v>
+      <c r="D50" t="s">
+        <v>94</v>
       </c>
       <c r="F50" t="s">
         <v>110</v>
@@ -2321,9 +2324,6 @@
       <c r="H50" t="s">
         <v>234</v>
       </c>
-      <c r="I50" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2341,19 +2341,16 @@
       <c r="G51" t="s">
         <v>164</v>
       </c>
-      <c r="H51" t="s">
-        <v>235</v>
-      </c>
       <c r="I51" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
@@ -2365,18 +2362,18 @@
         <v>165</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -2388,7 +2385,7 @@
         <v>166</v>
       </c>
       <c r="H53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I53" t="s">
         <v>267</v>
@@ -2411,10 +2408,10 @@
         <v>167</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2433,16 +2430,19 @@
       <c r="G55" t="s">
         <v>168</v>
       </c>
+      <c r="H55" t="s">
+        <v>238</v>
+      </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
@@ -2462,17 +2462,14 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
       <c r="F57" t="s">
         <v>111</v>
       </c>
@@ -2483,22 +2480,19 @@
         <v>240</v>
       </c>
       <c r="I57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
       <c r="F58" t="s">
         <v>111</v>
       </c>
@@ -2509,7 +2503,7 @@
         <v>241</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2532,19 +2526,22 @@
         <v>242</v>
       </c>
       <c r="I59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
       <c r="F60" t="s">
         <v>111</v>
       </c>
@@ -2555,19 +2552,22 @@
         <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
       </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
       <c r="F61" t="s">
         <v>111</v>
       </c>
@@ -2578,15 +2578,15 @@
         <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -2601,7 +2601,7 @@
         <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2647,7 +2647,7 @@
         <v>247</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2670,15 +2670,15 @@
         <v>248</v>
       </c>
       <c r="I65" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -2693,7 +2693,7 @@
         <v>249</v>
       </c>
       <c r="I66" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2716,7 +2716,7 @@
         <v>250</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2739,7 +2739,7 @@
         <v>251</v>
       </c>
       <c r="I68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2785,7 +2785,7 @@
         <v>253</v>
       </c>
       <c r="I70" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2808,7 +2808,7 @@
         <v>254</v>
       </c>
       <c r="I71" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2831,7 +2831,7 @@
         <v>255</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2900,7 +2900,7 @@
         <v>258</v>
       </c>
       <c r="I75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2923,7 +2923,7 @@
         <v>259</v>
       </c>
       <c r="I76" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2946,7 +2946,7 @@
         <v>260</v>
       </c>
       <c r="I77" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:9">

--- a/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage2/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="284">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01161212</t>
@@ -85,73 +85,76 @@
     <t>NCT02885090</t>
   </si>
   <si>
+    <t>NCT03234205</t>
+  </si>
+  <si>
+    <t>NCT02129621</t>
+  </si>
+  <si>
+    <t>NCT02877537</t>
+  </si>
+  <si>
+    <t>NCT02887131</t>
+  </si>
+  <si>
     <t>NCT01570179</t>
   </si>
   <si>
-    <t>NCT02129621</t>
-  </si>
-  <si>
-    <t>NCT03234205</t>
-  </si>
-  <si>
-    <t>NCT02877537</t>
-  </si>
-  <si>
-    <t>NCT02887131</t>
+    <t>NCT02182908</t>
+  </si>
+  <si>
+    <t>NCT02861222</t>
+  </si>
+  <si>
+    <t>NCT01963221</t>
   </si>
   <si>
     <t>NCT01351961</t>
   </si>
   <si>
-    <t>NCT02182908</t>
+    <t>NCT03240029</t>
+  </si>
+  <si>
+    <t>NCT02858167</t>
   </si>
   <si>
     <t>NCT01090934</t>
   </si>
   <si>
-    <t>NCT02858167</t>
-  </si>
-  <si>
-    <t>NCT02861222</t>
-  </si>
-  <si>
-    <t>NCT03240029</t>
-  </si>
-  <si>
-    <t>NCT01963221</t>
+    <t>NCT01692977</t>
   </si>
   <si>
     <t>NCT01722617</t>
   </si>
   <si>
-    <t>NCT01692977</t>
-  </si>
-  <si>
     <t>NCT01544647</t>
   </si>
   <si>
+    <t>NCT02430805</t>
+  </si>
+  <si>
+    <t>NCT02851576</t>
+  </si>
+  <si>
     <t>NCT02893449</t>
   </si>
   <si>
-    <t>NCT02430805</t>
+    <t>NCT01716819</t>
+  </si>
+  <si>
+    <t>NCT02874196</t>
+  </si>
+  <si>
+    <t>NCT02879786</t>
   </si>
   <si>
     <t>NCT02869100</t>
   </si>
   <si>
-    <t>NCT02851576</t>
-  </si>
-  <si>
     <t>NCT02869126</t>
   </si>
   <si>
-    <t>NCT02879786</t>
-  </si>
-  <si>
-    <t>NCT02874196</t>
-  </si>
-  <si>
-    <t>NCT01716819</t>
+    <t>NCT01367743</t>
   </si>
   <si>
     <t>NCT02634099</t>
@@ -160,9 +163,6 @@
     <t>NCT02894632</t>
   </si>
   <si>
-    <t>NCT01367743</t>
-  </si>
-  <si>
     <t>NCT02285712</t>
   </si>
   <si>
@@ -178,55 +178,58 @@
     <t>NCT03136315</t>
   </si>
   <si>
+    <t>NCT02869321</t>
+  </si>
+  <si>
+    <t>NCT02820376</t>
+  </si>
+  <si>
     <t>NCT02116868</t>
   </si>
   <si>
-    <t>NCT02869321</t>
-  </si>
-  <si>
     <t>NCT03306290</t>
   </si>
   <si>
-    <t>NCT02820376</t>
+    <t>NCT03356301</t>
+  </si>
+  <si>
+    <t>NCT02864680</t>
   </si>
   <si>
     <t>NCT04562571</t>
   </si>
   <si>
-    <t>NCT02864680</t>
-  </si>
-  <si>
-    <t>NCT03356301</t>
-  </si>
-  <si>
     <t>NCT02754193</t>
   </si>
   <si>
+    <t>NCT04448769</t>
+  </si>
+  <si>
+    <t>NCT02268071</t>
+  </si>
+  <si>
     <t>NCT02765009</t>
   </si>
   <si>
+    <t>NCT03125447</t>
+  </si>
+  <si>
+    <t>NCT03345290</t>
+  </si>
+  <si>
+    <t>NCT02261870</t>
+  </si>
+  <si>
+    <t>NCT02640287</t>
+  </si>
+  <si>
     <t>NCT01109225</t>
   </si>
   <si>
-    <t>NCT04448769</t>
-  </si>
-  <si>
-    <t>NCT02268071</t>
-  </si>
-  <si>
-    <t>NCT03125447</t>
-  </si>
-  <si>
-    <t>NCT02640287</t>
-  </si>
-  <si>
-    <t>NCT03345290</t>
-  </si>
-  <si>
     <t>NCT03980418</t>
   </si>
   <si>
-    <t>NCT02261870</t>
+    <t>NCT02879825</t>
   </si>
   <si>
     <t>NCT04354610</t>
@@ -235,61 +238,67 @@
     <t>NCT03465098</t>
   </si>
   <si>
-    <t>NCT02879825</t>
+    <t>NCT04625738</t>
   </si>
   <si>
     <t>NCT04373707</t>
   </si>
   <si>
-    <t>NCT04625738</t>
+    <t>NCT02887053</t>
+  </si>
+  <si>
+    <t>NCT03342014</t>
+  </si>
+  <si>
+    <t>NCT02976545</t>
+  </si>
+  <si>
+    <t>NCT03327493</t>
+  </si>
+  <si>
+    <t>NCT05308433</t>
   </si>
   <si>
     <t>NCT03370809</t>
   </si>
   <si>
-    <t>NCT05308433</t>
-  </si>
-  <si>
-    <t>NCT03327493</t>
-  </si>
-  <si>
-    <t>NCT02887053</t>
-  </si>
-  <si>
-    <t>NCT03342014</t>
-  </si>
-  <si>
     <t>NCT03348306</t>
   </si>
   <si>
-    <t>NCT02976545</t>
+    <t>NCT04536116</t>
+  </si>
+  <si>
+    <t>NCT04937582</t>
+  </si>
+  <si>
+    <t>NCT03347760</t>
+  </si>
+  <si>
+    <t>NCT04764721</t>
+  </si>
+  <si>
+    <t>NCT04348929</t>
   </si>
   <si>
     <t>NCT04467567</t>
   </si>
   <si>
-    <t>NCT04937582</t>
-  </si>
-  <si>
-    <t>NCT03347760</t>
-  </si>
-  <si>
-    <t>NCT04764721</t>
-  </si>
-  <si>
-    <t>NCT04348929</t>
+    <t>NCT03432182</t>
+  </si>
+  <si>
+    <t>NCT05183555</t>
+  </si>
+  <si>
+    <t>NCT04275895</t>
+  </si>
+  <si>
+    <t>NCT03311152</t>
   </si>
   <si>
     <t>NCT05910424</t>
   </si>
   <si>
-    <t>NCT05183555</t>
-  </si>
-  <si>
-    <t>NCT04275895</t>
-  </si>
-  <si>
-    <t>NCT03432182</t>
+    <t>NCT03616496</t>
   </si>
   <si>
     <t>NCT01253252</t>
@@ -301,10 +310,13 @@
     <t>2009-012817-23</t>
   </si>
   <si>
+    <t>2020-002772-12</t>
+  </si>
+  <si>
     <t>2020-001709-21</t>
   </si>
   <si>
-    <t>2020-002772-12</t>
+    <t>2018-004054-24</t>
   </si>
   <si>
     <t>2006</t>
@@ -361,6 +373,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Physical Activity, Health-related Quality of Life and Corpulence Among French Schoolchildren</t>
   </si>
   <si>
@@ -379,73 +394,76 @@
     <t>Search for New Genes Involved in Molecular Etiology of Rett Syndrome Through Comparative Genomic Hybridization on DNA Microarrays</t>
   </si>
   <si>
+    <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
+  </si>
+  <si>
+    <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
+  </si>
+  <si>
+    <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
+  </si>
+  <si>
+    <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
+  </si>
+  <si>
     <t>Sugammadex in Patients Undergoing Bariatric Surgery: An Equivalence Trial Comparing Real and Ideal Body Weight-based Dosing</t>
   </si>
   <si>
-    <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
-  </si>
-  <si>
-    <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
-  </si>
-  <si>
-    <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
-  </si>
-  <si>
-    <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
+    <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
+  </si>
+  <si>
+    <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
   </si>
   <si>
     <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
   </si>
   <si>
-    <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
+    <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
+  </si>
+  <si>
+    <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
   </si>
   <si>
     <t>Etude de la Performance Diagnostique de l'EEG-Haute Résolution Sur la Localisation de la Zone épileptogène Pour le Traitement Chirurgical Des épilepsies Partielles Pharmaco-résistantes</t>
   </si>
   <si>
-    <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
-  </si>
-  <si>
-    <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
-  </si>
-  <si>
-    <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
+    <t>Orienting Oneself in a Healing Garden: What Elements of the Design Are Used as Landmarks by Patients With Alzheimer's Disease ?</t>
   </si>
   <si>
     <t>A Study to Validate Questionnaires FLARE and OM-RA-FLARE Measuring Disease Flares in Patients With Rheumatoid Arthritis.</t>
   </si>
   <si>
-    <t>Orienting Oneself in a Healing Garden: What Elements of the Design Are Used as Landmarks by Patients With Alzheimer's Disease ?</t>
-  </si>
-  <si>
     <t>Comparison of 2 Spa Therapy Protocols in Symptomatic Knee Osteoarthritis : a Randomised Trial</t>
   </si>
   <si>
+    <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
+  </si>
+  <si>
+    <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
+  </si>
+  <si>
     <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
   </si>
   <si>
-    <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
+    <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
+  </si>
+  <si>
+    <t>Study of Diagnostic Performances of Dual Energy Imaging With Flat Detectors and Tomosynthesis in Identification of Loosening of Painful Hip Prosthesis</t>
+  </si>
+  <si>
+    <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
   </si>
   <si>
     <t>Comparison of Sodium Fluoride Positron Emission Tomography and Magnetic Resonance Imaging of Spine and Sacroiliac Joints for Detection of Inflammatory Lesions in Patients Affected by Spondyloarthritis</t>
   </si>
   <si>
-    <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
-  </si>
-  <si>
     <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
   </si>
   <si>
-    <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
-  </si>
-  <si>
-    <t>Study of Diagnostic Performances of Dual Energy Imaging With Flat Detectors and Tomosynthesis in Identification of Loosening of Painful Hip Prosthesis</t>
-  </si>
-  <si>
-    <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
+    <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
   </si>
   <si>
     <t>Hemoglobin Monitoring During High Bleeding Risk Surgery in Pediatric Patients: Equivalence Study of Hemoglobin Transcutaneous Saturation and Hemocue With Total Serum Hemoglobin</t>
@@ -454,9 +472,6 @@
     <t>MR Compatible Accelerometer for Respiratory MOTion Measurement</t>
   </si>
   <si>
-    <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
-  </si>
-  <si>
     <t>Contribution of Ultrasound for Peripheral Intravenous Catheter Placement by Intensive Care Nurses</t>
   </si>
   <si>
@@ -472,58 +487,61 @@
     <t>Renal Function Evaluation in an Ultra Endurance Race: On the Interest of Monitoring Specific Biomarkers to Asses Renal Risk.</t>
   </si>
   <si>
+    <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
+  </si>
+  <si>
+    <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
+  </si>
+  <si>
     <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
   </si>
   <si>
-    <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
-  </si>
-  <si>
     <t>An Evaluation of Serum Concentration of CEFOxitin Used for Antibiotic Prophylaxis in Severely and Morbidly Obese Patients Undergoing BARiatric Surgery (CEFOBAR)</t>
   </si>
   <si>
-    <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
+    <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
+  </si>
+  <si>
+    <t>Electrophysiological Study of the Functioning of Magnocellular Visual Pathway in Regular Cannabis Users</t>
   </si>
   <si>
     <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
   </si>
   <si>
-    <t>Electrophysiological Study of the Functioning of Magnocellular Visual Pathway in Regular Cannabis Users</t>
-  </si>
-  <si>
-    <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
-  </si>
-  <si>
     <t>Effects of Induced Moderate HYPOthermia on Mortality in Cardiogenic Shock Patients Rescued by Veno-arterial ExtraCorporeal Membrane Oxygenation (ECMO)</t>
   </si>
   <si>
+    <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
+  </si>
+  <si>
+    <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
+  </si>
+  <si>
     <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
   </si>
   <si>
+    <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
+  </si>
+  <si>
+    <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
+  </si>
+  <si>
+    <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
+  </si>
+  <si>
+    <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
+  </si>
+  <si>
+    <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
+  </si>
+  <si>
     <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
   </si>
   <si>
-    <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
-  </si>
-  <si>
-    <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
-  </si>
-  <si>
-    <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
-  </si>
-  <si>
-    <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
-  </si>
-  <si>
-    <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
-  </si>
-  <si>
-    <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
-  </si>
-  <si>
     <t>Comparative Study of DaTSCAN ™ Cerebral SPECT Recorded by Conventional Anger Cameras and Semiconductor Camera (VERITON-CT ™)</t>
   </si>
   <si>
-    <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
+    <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
   </si>
   <si>
     <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
@@ -532,61 +550,71 @@
     <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
   </si>
   <si>
-    <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
+    <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Effectiveness of Weight-adjusted Prophylactic Low Molecular Weight Heparin Doses Compared With Lower Fixed Prophylactic Doses to Prevent Venous Thromboembolism in COVID-2019. The Multicenter Randomized Controlled Open-label Trial COVI-DOSE</t>
   </si>
   <si>
-    <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
+    <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
+  </si>
+  <si>
+    <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
+  </si>
+  <si>
+    <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
+  </si>
+  <si>
+    <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
+  </si>
+  <si>
+    <t>Cybersickness imAgiNg Olfactory Evocation</t>
   </si>
   <si>
     <t>Assessment of Positron Emission Tomography to Early Detect Frailty in Onco-geriatry</t>
   </si>
   <si>
-    <t>Cybersickness imAgiNg Olfactory Evocation</t>
-  </si>
-  <si>
-    <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
-  </si>
-  <si>
-    <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
-  </si>
-  <si>
-    <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
-  </si>
-  <si>
     <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
   </si>
   <si>
-    <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
+    <t>EvaLuation De L'apport De L'Irm Virtuelle Sur La Qualité De La Prise En Charge Des Enfants En Irm</t>
+  </si>
+  <si>
+    <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
+  </si>
+  <si>
+    <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
+  </si>
+  <si>
+    <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
+  </si>
+  <si>
+    <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
   </si>
   <si>
     <t>Optimization for Clinical Routine of a Dosimetry Protocol Using the Large Field of View VERITON-CT CZT Camera in Patients Treated With LUTATHERA® [177Lu- [DOTA0, Tyr3] -Octreotate</t>
   </si>
   <si>
-    <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
-  </si>
-  <si>
-    <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
-  </si>
-  <si>
-    <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
-  </si>
-  <si>
-    <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
+    <t>Characterization of Movements Occurring During Sleep in Very Premature Neonates: Relationship With Neurodevelopmental Outcome</t>
+  </si>
+  <si>
+    <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
+  </si>
+  <si>
+    <t>Interdependency Between Cognitive and Postural Activities in Prematurely Born Children</t>
+  </si>
+  <si>
+    <t>Diagnostic Accuracy of the Circulating Cell-free DNA-based Epigenetic Biomarker MSEPT9 for Hepatocellular Carcinoma Detection Among Cirrhotic Patients: the SEPT9-CROSS Study</t>
   </si>
   <si>
     <t>Characterisation of the Oral Microbiota and Oral Status of a Population of Adult Patients With Autism Spectrum Disorders: a Pilot Study</t>
   </si>
   <si>
-    <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
-  </si>
-  <si>
-    <t>Interdependency Between Cognitive and Postural Activities in Prematurely Born Children</t>
-  </si>
-  <si>
-    <t>Characterization of Movements Occurring During Sleep in Very Premature Neonates: Relationship With Neurodevelopmental Outcome</t>
+    <t>Assessment of 18F-Florbetaben Whole-body PET Imaging for the Comprehensive Detection of Cardiac and Extracardiac Sites of Amyloid Deposits</t>
+  </si>
+  <si>
+    <t>Assessment of the (18)F-florbetaben whole-body PET imaging diagnostic performance for the detection of cardiac and extracardiac sites of amyloid deposits in patients with amyloidosis 
+ Evaluation de la performance diagnostique de l’examen TEP/TDM corps entier au 18F-Florbetaben pour la détection des dépôts amyloïdes aux niveaux cardiaque et extracardiaque chez des patients atteints d’amylose cardiaque</t>
   </si>
   <si>
     <t>Endoprosthesis Treatment Effects on Human Abdominal Aorta Aneurysms(AAA)Metabolic Activity</t>
@@ -604,67 +632,70 @@
     <t>RETT</t>
   </si>
   <si>
+    <t>ARTEMIS</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>IDIS</t>
+  </si>
+  <si>
     <t>SugReBaCh-1</t>
   </si>
   <si>
-    <t>ARTEMIS</t>
-  </si>
-  <si>
-    <t>SALBUTAMOL</t>
-  </si>
-  <si>
-    <t>IDIS</t>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>MYOCET</t>
+  </si>
+  <si>
+    <t>FICTEP</t>
   </si>
   <si>
     <t>ADELAHYDE2</t>
   </si>
   <si>
-    <t>AAA</t>
+    <t>QdV leucémie</t>
+  </si>
+  <si>
+    <t>BDD TEP FDG</t>
   </si>
   <si>
     <t>EEG-HR</t>
   </si>
   <si>
-    <t>BDD TEP FDG</t>
-  </si>
-  <si>
-    <t>MYOCET</t>
-  </si>
-  <si>
-    <t>QdV leucémie</t>
-  </si>
-  <si>
-    <t>FICTEP</t>
+    <t>JAZ-TOP</t>
   </si>
   <si>
     <t>FLARE</t>
   </si>
   <si>
-    <t>JAZ-TOP</t>
-  </si>
-  <si>
     <t>Nancythermal</t>
   </si>
   <si>
     <t>Hypercare</t>
   </si>
   <si>
+    <t>CTL-ADV</t>
+  </si>
+  <si>
+    <t>R2C2-II</t>
+  </si>
+  <si>
+    <t>PLIDET</t>
+  </si>
+  <si>
+    <t>EQUIDYS</t>
+  </si>
+  <si>
     <t>FNa</t>
   </si>
   <si>
-    <t>CTL-ADV</t>
-  </si>
-  <si>
     <t>D-SPECT BIS</t>
   </si>
   <si>
-    <t>EQUIDYS</t>
-  </si>
-  <si>
-    <t>PLIDET</t>
-  </si>
-  <si>
-    <t>R2C2-II</t>
+    <t>OptimaCC</t>
   </si>
   <si>
     <t>Hemoped</t>
@@ -673,9 +704,6 @@
     <t>MARMOT</t>
   </si>
   <si>
-    <t>OptimaCC</t>
-  </si>
-  <si>
     <t>IDECHO</t>
   </si>
   <si>
@@ -694,46 +722,49 @@
     <t>ANTALGIP</t>
   </si>
   <si>
+    <t>DOVISCAN</t>
+  </si>
+  <si>
     <t>CEFOBAR</t>
   </si>
   <si>
-    <t>DOVISCAN</t>
+    <t>CoATri</t>
   </si>
   <si>
     <t>CAUSA MAP</t>
   </si>
   <si>
-    <t>CoATri</t>
-  </si>
-  <si>
     <t>HYPO-ECMO</t>
   </si>
   <si>
+    <t>COVAL-NANCY</t>
+  </si>
+  <si>
     <t>POINCARE</t>
   </si>
   <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>PACTEP</t>
+  </si>
+  <si>
+    <t>DRAGET</t>
+  </si>
+  <si>
+    <t>Etude CURDYS</t>
+  </si>
+  <si>
+    <t>WAL-KU</t>
+  </si>
+  <si>
     <t>REMI</t>
   </si>
   <si>
-    <t>COVAL-NANCY</t>
-  </si>
-  <si>
-    <t>Etude CURDYS</t>
-  </si>
-  <si>
-    <t>PAM</t>
-  </si>
-  <si>
-    <t>WAL-KU</t>
-  </si>
-  <si>
-    <t>PACTEP</t>
-  </si>
-  <si>
     <t>VERIDAT</t>
   </si>
   <si>
-    <t>DRAGET</t>
+    <t>STAMP</t>
   </si>
   <si>
     <t>Nancy-CovH-AKI</t>
@@ -742,61 +773,71 @@
     <t>TEPEIR</t>
   </si>
   <si>
-    <t>STAMP</t>
+    <t>MSC-COVID19</t>
   </si>
   <si>
     <t>COVI-DOSE</t>
   </si>
   <si>
-    <t>MSC-COVID19</t>
+    <t>METHODO</t>
+  </si>
+  <si>
+    <t>SPIRIT</t>
+  </si>
+  <si>
+    <t>EMOCRISES</t>
+  </si>
+  <si>
+    <t>ADRECMO</t>
+  </si>
+  <si>
+    <t>CANOE</t>
   </si>
   <si>
     <t>FOGTEP</t>
   </si>
   <si>
-    <t>CANOE</t>
-  </si>
-  <si>
-    <t>ADRECMO</t>
-  </si>
-  <si>
-    <t>METHODO</t>
-  </si>
-  <si>
-    <t>SPIRIT</t>
-  </si>
-  <si>
     <t>COBRA</t>
   </si>
   <si>
-    <t>EMOCRISES</t>
+    <t>LIVE</t>
+  </si>
+  <si>
+    <t>NEUROCOG-COVID</t>
+  </si>
+  <si>
+    <t>DOTAMIR</t>
+  </si>
+  <si>
+    <t>TEP-COV</t>
+  </si>
+  <si>
+    <t>CONFINE</t>
   </si>
   <si>
     <t>EVADOVE177Lu</t>
   </si>
   <si>
-    <t>NEUROCOG-COVID</t>
-  </si>
-  <si>
-    <t>DOTAMIR</t>
-  </si>
-  <si>
-    <t>TEP-COV</t>
-  </si>
-  <si>
-    <t>CONFINE</t>
+    <t>DODOPREMA</t>
+  </si>
+  <si>
+    <t>DOTENDO</t>
+  </si>
+  <si>
+    <t>COGNIPOST</t>
+  </si>
+  <si>
+    <t>SEPT9-CROSS</t>
   </si>
   <si>
     <t>MICAA</t>
   </si>
   <si>
-    <t>DOTENDO</t>
-  </si>
-  <si>
-    <t>COGNIPOST</t>
-  </si>
-  <si>
-    <t>DODOPREMA</t>
+    <t>CAPRI</t>
+  </si>
+  <si>
+    <t>CAPRI 
+ CAPRI</t>
   </si>
   <si>
     <t>AAAendo</t>
@@ -808,22 +849,25 @@
     <t>DEVICE</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
+    <t>RADIATION</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DRUG</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
-  </si>
-  <si>
-    <t>DIAGNOSTIC_TEST</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,16 +1271,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1250,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1270,16 +1314,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1293,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1313,16 +1357,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1336,16 +1380,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1359,16 +1403,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1382,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1402,16 +1446,16 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1425,16 +1469,16 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1448,16 +1492,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1471,16 +1515,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1494,39 +1538,39 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1540,16 +1584,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1563,16 +1607,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I17" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1586,85 +1630,85 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1678,59 +1722,62 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="H23" t="s">
+        <v>219</v>
       </c>
       <c r="I23" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1744,39 +1791,36 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1790,16 +1834,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1813,16 +1857,16 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1836,62 +1880,65 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1905,42 +1952,39 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1954,16 +1998,16 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1977,16 +2021,16 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2000,16 +2044,16 @@
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2023,16 +2067,16 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2046,36 +2090,39 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="H39" t="s">
+        <v>234</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2089,39 +2136,36 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="I40" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2135,36 +2179,39 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>237</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2178,39 +2225,36 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="I45" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2224,16 +2268,16 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I46" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2247,39 +2291,36 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2293,36 +2334,39 @@
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I49" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>94</v>
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>242</v>
+      </c>
+      <c r="I50" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2333,16 +2377,19 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="H51" t="s">
+        <v>243</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2353,19 +2400,19 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H52" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2375,20 +2422,20 @@
       <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" t="s">
-        <v>67</v>
+      <c r="D53" t="s">
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H53" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2402,62 +2449,62 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I54" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="I56" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2471,16 +2518,16 @@
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I57" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2494,16 +2541,16 @@
         <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I58" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2517,68 +2564,68 @@
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I59" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I60" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H61" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I61" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2592,39 +2639,39 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I62" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I63" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2638,16 +2685,16 @@
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2661,39 +2708,39 @@
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H65" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I65" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2707,16 +2754,16 @@
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I67" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2730,16 +2777,16 @@
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I68" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2753,16 +2800,16 @@
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I69" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2776,16 +2823,16 @@
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I70" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2799,16 +2846,16 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I71" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2822,16 +2869,16 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G72" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I72" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2845,16 +2892,16 @@
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I73" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2868,16 +2915,16 @@
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2891,16 +2938,16 @@
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I75" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2914,16 +2961,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I76" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2937,16 +2984,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I77" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2959,14 +3006,103 @@
       <c r="C78" t="s">
         <v>92</v>
       </c>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H78" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I78" t="s">
-        <v>268</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" t="s">
+        <v>197</v>
+      </c>
+      <c r="H79" t="s">
+        <v>271</v>
+      </c>
+      <c r="I79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" t="s">
+        <v>272</v>
+      </c>
+      <c r="I80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" t="s">
+        <v>273</v>
+      </c>
+      <c r="I81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" t="s">
+        <v>274</v>
+      </c>
+      <c r="I82" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
